--- a/public/import/customerwisebudget.xlsx
+++ b/public/import/customerwisebudget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakasa\code\projects\php\laravel\blowplast\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38EBBE17-F001-4F61-8FF6-D9C2555A1519}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0654A44B-CFDC-49B8-B1F2-C26E68D46014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="-120" windowWidth="19755" windowHeight="11760" xr2:uid="{FF9EB4D8-CFD5-4FBD-B5ED-C3FD5DF84F7F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="15">
   <si>
     <t>Bidco Africa Limited(Dr)</t>
   </si>
@@ -69,10 +69,16 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Monthly Target</t>
+    <t>Weekly Target</t>
   </si>
   <si>
-    <t>Weekly Target</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Target Pieces</t>
+  </si>
+  <si>
+    <t>Target Weight</t>
   </si>
 </sst>
 </file>
@@ -442,20 +448,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345EACDE-EAC0-4C1E-8C7A-2DE06F2BB221}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101:C109"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -463,1233 +470,1563 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="1">
         <v>250</v>
       </c>
-      <c r="D2" s="1">
-        <f>SUM(C2/4)</f>
+      <c r="F2" s="1">
+        <f>SUM(E2/4)</f>
         <v>62.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="1">
         <v>220</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D10" si="0">SUM(C3/4)</f>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F10" si="0">SUM(E3/4)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="1">
         <v>250</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
+        <v>2021</v>
+      </c>
+      <c r="E5" s="1">
         <v>120</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="E7" s="1">
         <v>35</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="E8" s="1">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="E9" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
+        <v>2021</v>
+      </c>
+      <c r="E10" s="1">
         <v>20</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
+        <v>2021</v>
+      </c>
+      <c r="E11" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
+        <v>2021</v>
+      </c>
+      <c r="E12" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
+        <v>2021</v>
+      </c>
+      <c r="E13" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
+        <v>2021</v>
+      </c>
+      <c r="E14" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2021</v>
+      </c>
+      <c r="E15" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
+        <v>2021</v>
+      </c>
+      <c r="E17" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
+        <v>2021</v>
+      </c>
+      <c r="E18" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
+        <v>2021</v>
+      </c>
+      <c r="E19" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
+        <v>2021</v>
+      </c>
+      <c r="E20" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
+        <v>2021</v>
+      </c>
+      <c r="E21" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
+        <v>2021</v>
+      </c>
+      <c r="E22" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
+        <v>2021</v>
+      </c>
+      <c r="E23" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>2021</v>
+      </c>
+      <c r="E24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
+        <v>2021</v>
+      </c>
+      <c r="E25" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
+        <v>2021</v>
+      </c>
+      <c r="E26" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
+        <v>2021</v>
+      </c>
+      <c r="E27" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
+        <v>2021</v>
+      </c>
+      <c r="E28" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
+        <v>2021</v>
+      </c>
+      <c r="E29" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
+        <v>2021</v>
+      </c>
+      <c r="E30" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
+        <v>2021</v>
+      </c>
+      <c r="E31" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
+        <v>2021</v>
+      </c>
+      <c r="E32" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
+        <v>2021</v>
+      </c>
+      <c r="E33" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
+        <v>2021</v>
+      </c>
+      <c r="E34" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>2021</v>
+      </c>
+      <c r="E35" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
+        <v>2021</v>
+      </c>
+      <c r="E36" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
-      <c r="C37" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>2021</v>
+      </c>
+      <c r="E37" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
+        <v>2021</v>
+      </c>
+      <c r="E38" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
+        <v>2021</v>
+      </c>
+      <c r="E39" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
+        <v>2021</v>
+      </c>
+      <c r="E40" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
+        <v>2021</v>
+      </c>
+      <c r="E41" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
-      <c r="C42" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>2021</v>
+      </c>
+      <c r="E42" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>2021</v>
+      </c>
+      <c r="E43" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
-      <c r="C44" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>2021</v>
+      </c>
+      <c r="E44" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
+        <v>2021</v>
+      </c>
+      <c r="E45" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>2021</v>
+      </c>
+      <c r="E46" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
+        <v>2021</v>
+      </c>
+      <c r="E47" s="1">
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
+        <v>2021</v>
+      </c>
+      <c r="E48" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
+        <v>2021</v>
+      </c>
+      <c r="E49" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
+        <v>2021</v>
+      </c>
+      <c r="E50" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
+        <v>2021</v>
+      </c>
+      <c r="E51" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
-      <c r="C52" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>2021</v>
+      </c>
+      <c r="E52" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
-      <c r="C53" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>2021</v>
+      </c>
+      <c r="E53" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
+        <v>2021</v>
+      </c>
+      <c r="E54" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
-      <c r="C55" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>2021</v>
+      </c>
+      <c r="E55" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
+        <v>2021</v>
+      </c>
+      <c r="E56" s="1">
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
       <c r="B57">
         <v>7</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
+        <v>2021</v>
+      </c>
+      <c r="E57" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58">
         <v>7</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
+        <v>2021</v>
+      </c>
+      <c r="E58" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
       <c r="B59">
         <v>7</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
+        <v>2021</v>
+      </c>
+      <c r="E59" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
       <c r="B60">
         <v>7</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
+        <v>2021</v>
+      </c>
+      <c r="E60" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61">
         <v>7</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
+        <v>2021</v>
+      </c>
+      <c r="E61" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
       <c r="B62">
         <v>7</v>
       </c>
-      <c r="C62" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>2021</v>
+      </c>
+      <c r="E62" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
       <c r="B63">
         <v>7</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
+        <v>2021</v>
+      </c>
+      <c r="E63" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64">
         <v>7</v>
       </c>
-      <c r="C64" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>2021</v>
+      </c>
+      <c r="E64" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65">
         <v>8</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
+        <v>2021</v>
+      </c>
+      <c r="E65" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
       <c r="B66">
         <v>8</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
+        <v>2021</v>
+      </c>
+      <c r="E66" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
       <c r="B67">
         <v>8</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
+        <v>2021</v>
+      </c>
+      <c r="E67" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68">
         <v>8</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
+        <v>2021</v>
+      </c>
+      <c r="E68" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
       <c r="B69">
         <v>8</v>
       </c>
-      <c r="C69" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>2021</v>
+      </c>
+      <c r="E69" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="B70">
         <v>8</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
+        <v>2021</v>
+      </c>
+      <c r="E70" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
       <c r="B71">
         <v>8</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
+        <v>2021</v>
+      </c>
+      <c r="E71" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
+        <v>2021</v>
+      </c>
+      <c r="E72" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73">
         <v>8</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
+        <v>2021</v>
+      </c>
+      <c r="E73" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
       <c r="B74">
         <v>9</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
+        <v>2021</v>
+      </c>
+      <c r="E74" s="1">
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
       <c r="B75">
         <v>9</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
+        <v>2021</v>
+      </c>
+      <c r="E75" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76">
         <v>9</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
+        <v>2021</v>
+      </c>
+      <c r="E76" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
       <c r="B77">
         <v>9</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
+        <v>2021</v>
+      </c>
+      <c r="E77" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
       <c r="B78">
         <v>9</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
+        <v>2021</v>
+      </c>
+      <c r="E78" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
       <c r="B79">
         <v>9</v>
       </c>
-      <c r="C79" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>2021</v>
+      </c>
+      <c r="E79" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
       <c r="B80">
         <v>9</v>
       </c>
-      <c r="C80" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>2021</v>
+      </c>
+      <c r="E80" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
       <c r="B81">
         <v>9</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
+        <v>2021</v>
+      </c>
+      <c r="E81" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
       <c r="B82">
         <v>9</v>
       </c>
-      <c r="C82" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>2021</v>
+      </c>
+      <c r="E82" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
       <c r="B83">
         <v>10</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
+        <v>2021</v>
+      </c>
+      <c r="E83" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
       <c r="B84">
         <v>10</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84">
+        <v>2021</v>
+      </c>
+      <c r="E84" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85">
         <v>10</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85">
+        <v>2021</v>
+      </c>
+      <c r="E85" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
       <c r="B86">
         <v>10</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86">
+        <v>2021</v>
+      </c>
+      <c r="E86" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
       <c r="B87">
         <v>10</v>
       </c>
-      <c r="C87" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>2021</v>
+      </c>
+      <c r="E87" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="B88">
         <v>10</v>
       </c>
-      <c r="C88" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>2021</v>
+      </c>
+      <c r="E88" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
       <c r="B89">
         <v>10</v>
       </c>
-      <c r="C89" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>2021</v>
+      </c>
+      <c r="E89" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
       <c r="B90">
         <v>10</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90">
+        <v>2021</v>
+      </c>
+      <c r="E90" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
       <c r="B91">
         <v>10</v>
       </c>
-      <c r="C91" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>2021</v>
+      </c>
+      <c r="E91" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
       <c r="B92">
         <v>11</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
+        <v>2021</v>
+      </c>
+      <c r="E92" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
       <c r="B93">
         <v>11</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
+        <v>2021</v>
+      </c>
+      <c r="E93" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2</v>
       </c>
       <c r="B94">
         <v>11</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94">
+        <v>2021</v>
+      </c>
+      <c r="E94" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3</v>
       </c>
       <c r="B95">
         <v>11</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95">
+        <v>2021</v>
+      </c>
+      <c r="E95" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
       <c r="B96">
         <v>11</v>
       </c>
-      <c r="C96" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>2021</v>
+      </c>
+      <c r="E96" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
       <c r="B97">
         <v>11</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97">
+        <v>2021</v>
+      </c>
+      <c r="E97" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
       <c r="B98">
         <v>11</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98">
+        <v>2021</v>
+      </c>
+      <c r="E98" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
       <c r="B99">
         <v>11</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99">
+        <v>2021</v>
+      </c>
+      <c r="E99" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100">
         <v>11</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100">
+        <v>2021</v>
+      </c>
+      <c r="E100" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
       <c r="B101">
         <v>12</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101">
+        <v>2021</v>
+      </c>
+      <c r="E101" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
       <c r="B102">
         <v>12</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102">
+        <v>2021</v>
+      </c>
+      <c r="E102" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2</v>
       </c>
       <c r="B103">
         <v>12</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103">
+        <v>2021</v>
+      </c>
+      <c r="E103" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
       <c r="B104">
         <v>12</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
+        <v>2021</v>
+      </c>
+      <c r="E104" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>4</v>
       </c>
       <c r="B105">
         <v>12</v>
       </c>
-      <c r="C105" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>2021</v>
+      </c>
+      <c r="E105" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
       <c r="B106">
         <v>12</v>
       </c>
-      <c r="C106" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>2021</v>
+      </c>
+      <c r="E106" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
       <c r="B107">
         <v>12</v>
       </c>
-      <c r="C107" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>2021</v>
+      </c>
+      <c r="E107" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
       <c r="B108">
         <v>12</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108">
+        <v>2021</v>
+      </c>
+      <c r="E108" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
       <c r="B109">
         <v>12</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109">
+        <v>2021</v>
+      </c>
+      <c r="E109" s="1">
         <v>30</v>
       </c>
     </row>
